--- a/data/xslx/Malla_Emprendimiento_ColectivoV2.xlsx
+++ b/data/xslx/Malla_Emprendimiento_ColectivoV2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hburitica.ACSOCIAL\Documents\REPOS_MALLA DE VALIDACION\ValidationGrid\data\xslx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED705639-42AF-409B-95B9-81BFF273CD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C9A654-4145-407D-9742-E2A93129F43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{406B4B18-D335-4FA1-B475-8E637F1B1B9F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{406B4B18-D335-4FA1-B475-8E637F1B1B9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Validaciones" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="313">
   <si>
     <t>fechadiligenciaencuesta</t>
   </si>
@@ -1412,8 +1412,8 @@
   <dimension ref="A1:H238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2567,7 +2567,9 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -5185,8 +5187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F3F87D-5E36-49F4-BD14-E381236E6911}">
   <dimension ref="A1:N182"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5358,7 +5360,7 @@
         <v>136</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="N15" t="s">
         <v>136</v>
@@ -5372,7 +5374,7 @@
         <v>110</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
